--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_26.07.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1643 +505,1947 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731410633.5005348</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731410633.8980353</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410633.5005348.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410633.8980353.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>298.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731410633.9119978</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731410633.9861708</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410633.9119978.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410633.9861708.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>298.87</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731410634.3850887</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731410634.6842527</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410634.3850887.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410634.6842527.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.25</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>297.84</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.589999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731410635.3886018</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731410636.59632</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410635.3886018.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410636.59632.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>295.06</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>294.94</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731410638.432081</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731410639.8431656</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410638.432081.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410639.8431656.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>295.59</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>294.96</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6299999999999955</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731410639.8571298</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731410639.9240582</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410639.8571298.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410639.9240582.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>294.96</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>295.38</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731410639.9966154</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731410640.1771116</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410639.9966154.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731410640.1771116.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>294.18</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>294.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731410644.1733909</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731410644.8784883</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410644.1733909.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410644.8784883.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>136.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>136.18</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731410645.4441874</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731410645.6698096</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410645.4441874.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410645.6698096.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.67</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>135.33</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.660000000000025</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731410646.3681498</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731410646.7881265</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410646.3681498.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410646.7881265.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>133.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>134.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.200000000000017</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731410647.7648597</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731410648.2716038</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410647.7648597.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410648.2716038.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.59</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>133.56</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9699999999999989</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731410649.2693028</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731410651.4117906</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410649.2693028.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731410651.4117906.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>134.04</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>135.17</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.129999999999995</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731410652.2679942</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731410652.2679942.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731410652.2679942.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>134.78</v>
       </c>
-      <c r="J15" t="n">
-        <v>134.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731410652.5664947</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731410653.6425211</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410652.5664947.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410653.6425211.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6945</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6947</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731410655.3670905</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731410655.5010588</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410655.3670905.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410655.5010588.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6957.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6938</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>19.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731410655.9672697</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731410656.5580416</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410655.9672697.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410656.5580416.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6925.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6936</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731410657.2540426</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731410657.687409</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410657.2540426.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410657.687409.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6892.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6925</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>32.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731410660.9060826</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731410661.1030643</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410660.9060826.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410661.1030643.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6943.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6931</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731410662.1169436</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731410662.2191298</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410662.1169436.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410662.2191298.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6947</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6933.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731410662.3202944</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731410662.6343145</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410662.3202944.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731410662.6343145.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6926.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6941</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>14.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731410664.4125621</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731410665.2586412</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410664.4125621.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410665.2586412.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>535.9</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>536.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.9500000000000455</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731410665.6938689</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731410666.4969492</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410665.6938689.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410666.4969492.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>537.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>537.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731410666.7734065</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731410667.1251645</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410666.7734065.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410667.1251645.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>535.75</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>534.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.9500000000000455</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731410667.8699672</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731410671.674245</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410667.8699672.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410671.674245.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>530.3</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>522.25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-8.049999999999955</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-1.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731410672.903083</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731410673.0592992</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410672.903083.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731410673.0592992.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>524.75</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>523.55</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731410673.9977808</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731410674.4920924</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410673.9977808.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410674.4920924.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1096.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1093.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731410675.2879713</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731410675.866079</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410675.2879713.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410675.866079.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1093</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1093.8</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731410676.3947206</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731410676.9337614</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410676.3947206.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410676.9337614.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1094.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.399999999999864</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731410677.355916</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731410677.6974294</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410677.355916.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410677.6974294.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1087</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731410678.4160185</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731410679.2492044</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410678.4160185.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410679.2492044.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1072.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1079.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>7.399999999999864</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731410679.7616878</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731410680.9934142</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410679.7616878.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410680.9934142.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1063.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1064.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731410681.5721233</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731410683.9843664</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410681.5721233.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731410683.9843664.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1067</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1075.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-8.400000000000091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731410684.7410338</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731410684.7410338.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731410684.7410338.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1071.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1071.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2134,3700 +2453,4393 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731410685.107868</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731410685.4413104</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410685.107868.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410685.4413104.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>131.08</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>130.82</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731410686.4181135</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731410687.7172358</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410686.4181135.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410687.7172358.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>130.5</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>130.34</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731410688.001693</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731410688.3631234</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410688.001693.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410688.3631234.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>129.3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>129.62</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731410688.620218</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731410691.3140879</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410688.620218.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410691.3140879.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>128.46</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>125.92</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2.540000000000006</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731410692.607746</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731410694.510686</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410692.607746.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731410694.510686.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>126.22</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.54</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.320000000000007</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731410694.6475322</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731410694.6475322.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731410694.6475322.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>127.32</v>
       </c>
-      <c r="J41" t="n">
-        <v>127.32</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731410694.891337</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731410695.5177455</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410694.891337.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410695.5177455.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>173.78</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>173.02</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731410695.7809603</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731410696.4660528</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410695.7809603.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410696.4660528.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>172.9</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>173.38</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731410696.7210846</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731410698.1214454</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410696.7210846.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410698.1214454.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>173.74</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>174.48</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.7399999999999807</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731410698.165643</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731410698.5673966</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410698.165643.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410698.5673966.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>173.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>174.5</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.9000000000000057</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731410699.4140067</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731410701.9686913</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410699.4140067.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410701.9686913.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>170.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>167.36</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-3.239999999999981</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731410702.5679932</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731410704.2718163</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410702.5679932.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731410704.2718163.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>167.58</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>170.48</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-2.899999999999977</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731410705.7407675</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731410705.9325397</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410705.7407675.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410705.9325397.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>53.425</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>53.315</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731410706.4262314</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731410706.5290453</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410706.4262314.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410706.5290453.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>53.415</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>53.35</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731410706.7004888</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731410708.1360793</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410706.7004888.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.1360793.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>53.43</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>53.435</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731410708.1848488</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731410708.2267408</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.1848488.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.2267408.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>53.33</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>53.405</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731410708.4022026</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731410708.675089</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.4022026.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.675089.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>53.46</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>53.21</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731410708.691046</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731410709.0829499</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410708.691046.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410709.0829499.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>53.21</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>53.25</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731410709.5161395</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731410710.5450299</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410709.5161395.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410710.5450299.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>53.04</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>52.74</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731410710.9867313</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731410711.4830785</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410710.9867313.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410711.4830785.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>52.115</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>52.435</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731410713.8189843</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731410714.3936129</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410713.8189843.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731410714.3936129.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>52.25</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>52.19</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731410714.8345444</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731410714.8345444.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731410714.8345444.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>52.36</v>
       </c>
-      <c r="J57" t="n">
-        <v>52.36</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>52.505</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.1450000000000031</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731410716.3729029</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731410716.794135</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410716.3729029.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410716.794135.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1458.4</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>6.399999999999864</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731410717.3263736</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731410717.783166</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410717.3263736.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410717.783166.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1458</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1460</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731410717.798153</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731410718.5913713</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410717.798153.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410718.5913713.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1460</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1459.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731410718.9758143</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731410719.1639566</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410718.9758143.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410719.1639566.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1459.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1461.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731410719.432423</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731410719.7012403</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410719.432423.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410719.7012403.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1453.4</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-4.600000000000136</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731410721.4611185</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731410722.8681207</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410721.4611185.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410722.8681207.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1432.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1423.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-9</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731410723.0024374</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731410724.5845156</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410723.0024374.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410724.5845156.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1429</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1432</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731410725.264594</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731410726.3260357</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410725.264594.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731410726.3260357.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1446</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1441</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731410726.6387935</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731410726.7857158</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410726.6387935.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410726.7857158.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>63.73</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>63.62</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731410727.6611469</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731410728.0199785</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410727.6611469.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410728.0199785.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>63.43</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>63.62</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731410728.1528523</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731410728.9315662</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410728.1528523.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410728.9315662.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>63.78</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>63.55</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.230000000000004</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731410729.3346887</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731410729.620334</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410729.3346887.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410729.620334.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>63.16</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>63.23</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731410730.314793</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731410732.7386816</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410730.314793.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410732.7386816.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>62.52</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>60.98</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1.540000000000006</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-2.46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731410733.3463542</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731410734.1185215</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410733.3463542.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410734.1185215.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>61.26</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>61.25</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731410735.0430017</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731410735.5784483</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410735.0430017.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731410735.5784483.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>61.57</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>61.38</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731410735.6214588</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731410735.6214588.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731410735.6214588.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>61.35</v>
       </c>
-      <c r="J73" t="n">
-        <v>61.35</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
+      <c r="L73" t="n">
+        <v>61.32</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731410736.943648</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731410738.588502</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410736.943648.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410738.588502.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>58.97</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>58.78</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731410738.6935804</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731410739.0260484</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410738.6935804.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410739.0260484.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>58.29</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>58.46</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731410739.7760339</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731410742.4204724</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410739.7760339.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410742.4204724.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>57.7</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>56.59</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-1.109999999999999</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-1.92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731410742.9101386</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731410744.7104034</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410742.9101386.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731410744.7104034.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>56.91</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>57.25</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731410745.4366615</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731410745.4366615.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731410745.4366615.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>57.09</v>
       </c>
-      <c r="J78" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
+      <c r="L78" t="n">
+        <v>56.92</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731410745.6016037</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731410745.9458678</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410745.6016037.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410745.9458678.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>144.94</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>144.7</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731410746.5055811</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731410747.2784762</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410746.5055811.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410747.2784762.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>144.1</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>144.98</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.8799999999999955</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731410748.4215088</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731410749.0357423</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410748.4215088.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410749.0357423.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>143.52</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>143.54</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731410749.6181238</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731410750.5358193</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410749.6181238.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410750.5358193.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>141.08</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>141.66</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731410750.9582417</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731410751.3918614</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410750.9582417.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410751.3918614.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>140</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>139.78</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731410752.5399384</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731410754.4444263</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410752.5399384.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731410754.4444263.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>141.04</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>141</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731410754.6315758</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731410754.6315758.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731410754.6315758.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>140.92</v>
       </c>
-      <c r="J85" t="n">
-        <v>140.92</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>140.08</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.839999999999975</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731410757.427375</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731410757.9060707</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410757.427375.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410757.9060707.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>58.55</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>58.39</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731410758.3125699</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731410760.9493213</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410758.3125699.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410760.9493213.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>57.54</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>56.1</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-1.439999999999998</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731410761.588997</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731410762.847099</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410761.588997.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731410762.847099.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>56.23</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>56.34</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.1100000000000065</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731410763.7074175</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731410763.7074175.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731410763.7074175.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>56.29</v>
       </c>
-      <c r="J89" t="n">
-        <v>56.29</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
+      <c r="L89" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731410765.2218323</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731410765.9896624</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410765.2218323.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410765.9896624.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>382.68</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>385</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>2.319999999999993</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731410766.0056198</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731410766.1015966</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410766.0056198.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410766.1015966.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>385</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>382.53</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>2.470000000000027</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731410766.4690137</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731410767.2297873</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410766.4690137.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410767.2297873.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>385.17</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>384.29</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.8799999999999955</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731410767.8375235</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731410769.5126045</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410767.8375235.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410769.5126045.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>381.93</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>381.66</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731410770.5552433</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731410771.9923978</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410770.5552433.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731410771.9923978.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>383.67</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>384.84</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-1.169999999999959</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731410772.482076</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731410772.482076.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731410772.482076.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>384.23</v>
       </c>
-      <c r="J95" t="n">
-        <v>384.23</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
+      <c r="L95" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.6299999999999955</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731410775.0301623</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731410776.0990376</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410775.0301623.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410776.0990376.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.10102</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.10114</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0001199999999999951</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731410776.732759</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731410776.8320198</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410776.732759.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410776.8320198.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.10132</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.10112</v>
       </c>
-      <c r="K97" t="n">
-        <v>0.0002000000000000057</v>
+      <c r="M97" t="n">
+        <v>0.0001999999999999919</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731410777.300459</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731410777.822514</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410777.300459.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410777.822514.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.10068</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>0.10104</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.0003599999999999992</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731410778.1716003</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731410780.2973833</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410778.1716003.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410780.2973833.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>0.09954</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>0.09844000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.00109999999999999</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-1.11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731410781.336905</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731410783.2470713</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410781.336905.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/FEES1731410783.2470713.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>0.0985</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>0.09886</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.0003599999999999992</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731410783.8627083</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731410783.8627083.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731410783.8627083.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.09854</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.09854</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
+      <c r="L101" t="n">
+        <v>0.09826</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.0002800000000000025</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731410784.2931511</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731410785.2400823</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410784.2931511.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410785.2400823.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>3134.05</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>3128</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>6.050000000000182</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731410785.7781181</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731410786.3467112</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410785.7781181.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410786.3467112.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>3124.6</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>3130</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>5.400000000000091</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731410786.4540906</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731410787.1859508</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410786.4540906.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410787.1859508.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>3131.7</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>3129.05</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>2.649999999999636</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731410787.8414872</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731410788.0612128</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410787.8414872.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410788.0612128.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>17.19999999999982</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731410788.868407</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731410791.1937373</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410788.868407.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410791.1937373.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>3075.5</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>3064.7</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-10.80000000000018</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731410791.3415456</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731410793.0770962</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410791.3415456.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410793.0770962.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>3074.7</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>3074.3</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.3999999999996362</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731410793.668912</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731410793.9043596</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410793.668912.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410793.9043596.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>3083.5</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>3080.2</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>3.300000000000182</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731410794.1001875</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731410794.593837</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410794.1001875.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731410794.593837.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>3075.55</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>3081.25</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>5.699999999999818</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731410794.6414616</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731410794.6414616.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731410794.6414616.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>3073.55</v>
       </c>
-      <c r="J110" t="n">
-        <v>3073.55</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
+      <c r="L110" t="n">
+        <v>3065.9</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-7.650000000000091</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731410794.9974349</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731410795.3975616</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410794.9974349.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410795.3975616.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>37.945</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>37.815</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731410796.7107859</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731410797.0438042</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410796.7107859.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410797.0438042.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>37.79</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>37.79</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5835,670 +6847,796 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731410797.4470296</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731410797.8620155</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410797.4470296.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410797.8620155.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>37.68</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>37.79</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731410797.9079244</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731410797.984751</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410797.9079244.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410797.984751.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>37.8</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>37.63</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.1699999999999946</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731410798.0017018</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731410798.0757089</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410798.0017018.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410798.0757089.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>37.63</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>37.685</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731410798.177005</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731410798.343321</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410798.177005.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410798.343321.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>37.535</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>37.56</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.02500000000000568</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731410798.854958</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731410801.4139757</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410798.854958.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410801.4139757.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>37.125</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>35.705</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-1.420000000000002</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-3.82</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731410801.9001243</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731410802.880435</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410801.9001243.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731410802.880435.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>35.9</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>35.875</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731410804.4420455</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731410804.4420455.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731410804.4420455.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>35.855</v>
       </c>
-      <c r="J119" t="n">
-        <v>35.855</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
+      <c r="L119" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731410806.9274776</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731410807.7114024</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410806.9274776.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410807.7114024.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>661.1</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>660.9</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731410808.1967769</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731410808.5555987</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410808.1967769.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410808.5555987.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>657.7</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>658</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.2999999999999545</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731410809.2421174</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731410809.7165115</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410809.2421174.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410809.7165115.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>652.2</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>655.7</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731410810.4002237</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731410811.3077612</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410810.4002237.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410811.3077612.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>649.5</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>652.9</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>3.399999999999977</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731410811.713553</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731410813.6129308</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410811.713553.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410813.6129308.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>653</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>655.2</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731410814.3122203</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731410815.2609816</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410814.3122203.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/TATN1731410815.2609816.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>653.1</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>653.5</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731410815.6212552</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731410815.6212552.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731410815.6212552.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>651.4</v>
       </c>
-      <c r="J126" t="n">
-        <v>651.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
+      <c r="L126" t="n">
+        <v>651.6</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -6512,7 +7650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6541,6 +7679,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6549,13 +7697,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.615000000000002</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0615000000000002</v>
+        <v>0.04699999999999989</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -6565,13 +7719,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9050000000000011</v>
+        <v>-0.9600000000000009</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1005555555555557</v>
+        <v>-0.1066666666666668</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="4">
@@ -6581,13 +7741,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.89999999999918</v>
+        <v>22.24999999999909</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>3.322222222222131</v>
+        <v>2.472222222222121</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6999999999999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -6605,6 +7771,12 @@
       <c r="D5" t="n">
         <v>-0.05000000000003979</v>
       </c>
+      <c r="E5" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6613,13 +7785,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7400000000000091</v>
+        <v>-0.7700000000000102</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09250000000000114</v>
+        <v>-0.09625000000000128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
@@ -6637,6 +7815,12 @@
       <c r="D7" t="n">
         <v>0.8249999999999602</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6653,6 +7837,12 @@
       <c r="D8" t="n">
         <v>14.42857142857143</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6661,13 +7851,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.599999999999909</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7999999999999871</v>
+        <v>0.8285714285714221</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -6685,6 +7881,12 @@
       <c r="D10" t="n">
         <v>0.5057142857142887</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6693,13 +7895,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.539999999999964</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="C11" t="n">
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2199999999999948</v>
+        <v>0.09999999999999838</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6709,13 +7917,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.000779999999999989</v>
+        <v>-0.001060000000000005</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0001299999999999982</v>
+        <v>-0.0001766666666666676</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="13">
@@ -6725,13 +7939,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.82000000000005</v>
+        <v>2.740000000000038</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4700000000000084</v>
+        <v>0.4566666666666729</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
@@ -6741,13 +7961,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.439999999999998</v>
+        <v>-3.459999999999994</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5733333333333329</v>
+        <v>-0.5766666666666657</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="15">
@@ -6765,6 +7991,12 @@
       <c r="D15" t="n">
         <v>-0.789999999999992</v>
       </c>
+      <c r="E15" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6773,13 +8005,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.230000000000075</v>
+        <v>3.60000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7050000000000125</v>
+        <v>0.6000000000000133</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="17">
@@ -6797,6 +8035,12 @@
       <c r="D17" t="n">
         <v>-1.309999999999991</v>
       </c>
+      <c r="E17" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6805,13 +8049,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.090000000000003</v>
+        <v>-1.260000000000005</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2180000000000007</v>
+        <v>-0.252000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="19">
@@ -6821,13 +8071,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.390000000000008</v>
+        <v>-1.610000000000007</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3475000000000019</v>
+        <v>-0.4025000000000016</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="20">
@@ -6843,6 +8099,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
